--- a/PRODUTOS/Limpeza/Limpeza - Desodorizadores.xlsx
+++ b/PRODUTOS/Limpeza/Limpeza - Desodorizadores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Difusor De Aromas Coala 100ml Lavanda</t>
+          <t>Pedra Sanitaria Pato 25g C/25% Desc Lavanda</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1257a111-b50f-41da-9f7f-0c0331c97cbd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/52580cea-1ea3-4463-9730-1a65247a0c79.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7894650939598</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pedra Sanitaria Glade 25% Desc 25gr Lav</t>
+          <t>Pastilha Sanitaria Adesiva Pato C/3 20% Desc Lavanda</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8e25b818-24cb-4b72-862a-df086f9dc1b7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0fa34707-71c9-4351-bd40-94abba412c86.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7894650013502</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pedra Sanitaria Glad 25g C/25% Desc Pinho</t>
+          <t>Desodorizador Pato Caixa Acoplada 40g Marine</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/57e7b4d5-c3f0-48a0-848e-2abdc69d74a5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d974b17d-1322-4521-8703-d8b18132761e.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7894650002513</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Difusor De Aromas Secar 100ml Lavanda</t>
+          <t>Gel Adesivo Pato Refil Marine 38g</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa4db9f0-4779-4f3c-bea5-95d6fde890f5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ca129d01-17e3-435e-b907-66a8e3343688.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7894650002667</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Bom Ar 360ml Cheirinh Talco Emb Economic</t>
+          <t>Pastilha Sanitaria Adesiva Pato C/3 20% Desc Floral</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce26446d-376f-4356-9bbe-1111d5f55c8f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0c2369d1-737d-4243-aa57-42bbc807557f.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7894650940082</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bom Ar Air Wick Lavanda 360ml Emb Econom</t>
+          <t>Gel Adesivo Marine Pato 38g</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 28,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ebca93d5-8221-4f0d-933a-ae97363d1f26.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a57ce14-0678-4d03-9c63-8105d48beb8e.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7894650013083</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Pedra Sanitaria Pato 25g C/25% Desc Lavanda</t>
+          <t>Gel Adesivo Pato Refil+aparelho Gratis 38g Marine</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/52580cea-1ea3-4463-9730-1a65247a0c79.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e9799abb-dcf9-4c94-a795-35a7811f6ba4.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7894650002667</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Desumificador Secar 80g Original Natural</t>
+          <t>Gel Adesivo Pato 38g Refil+aparelho Gts Lavanda</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0dded44b-49aa-4c08-827d-db4a9011a4e3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3e753589-8375-44fb-ba6c-10de4d8dd097.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7894650013083</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Pedra Sanit Pato Purific 25% 25g Marine</t>
+          <t>Evitamofo Secar 180g Floral</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/48bf275f-6ceb-403b-a0c3-9f4de939c89f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/02928180-cfd2-4daa-a0a4-eb36b6b3467e.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896013403500</t>
         </is>
       </c>
     </row>
@@ -704,7 +754,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Difusor De Aromas Coala 100ml Orquidea</t>
+          <t>Difusor De Aromas Coala 100ml Cereja Com Avela</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -714,7 +764,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/57303403-6b13-4a82-b2ec-a8aa952a67fa.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f534dc78-6e90-4f6c-be02-a1bb6e4e71d1.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7897744503972</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Pastilha Sanitaria Adesiva Pato C/3 20% Desc Lavanda</t>
+          <t>Difusor De Aromas Coala 100ml Tropical</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0fa34707-71c9-4351-bd40-94abba412c86.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0c62aceb-0f4b-4d0b-9b43-d691199c493d.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7897744502555</t>
         </is>
       </c>
     </row>
@@ -758,7 +818,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Pastilha Sanitaria Adesiva Pato C/3 20% Desc Floral</t>
+          <t>Evitamofo Secar 180g Neutro</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -768,7 +828,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0c2369d1-737d-4243-aa57-42bbc807557f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/508d3a62-8792-4f39-b21a-ee3d912cc6e5.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896013403531</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Pedra Sanitaria Harpic Plus Lavanda 25g</t>
+          <t>Difusor De Aromas Coala 100ml Roma</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/23f7da91-4aac-4f34-b43d-a0b18522456c.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7897744502555</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Difusor De Aromas Coala 100ml Capim Limao</t>
+          <t>Difusor De Aromas Secar 100ml Sem Nativa</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5917a347-cf27-4323-842b-26371a04c892.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f03732b9-94fe-4c62-ae98-7635232084bf.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7896013402831</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pedra Sant Harpic Hig Plus 25gr Citrus</t>
+          <t>Difusor De Aromas Secar 100ml Esmeralda</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d324b58e-4bfe-4b3f-afa4-740926897863.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/30f2705c-8fe5-4a2c-a51e-021130845d20.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7896013403371</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Bom Ar 360ml Flor De Algodão</t>
+          <t>Desumificador Secar 80g Original Natural</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/875afb6e-c444-4559-839e-a2b94ec23bcd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0dded44b-49aa-4c08-827d-db4a9011a4e3.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7896013403579</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Difusor De Aroma Secar 100ml Lavand Blue</t>
+          <t>Desumificador Secar 80g Original Kids</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9f32b961-dbc6-403f-bcad-9f28c8e5213b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/32ef2f2c-4402-40f0-a378-6d1b3fd94092.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7896013403579</t>
         </is>
       </c>
     </row>
@@ -920,7 +1010,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Desodorizador Aer Glade 360ml Lavand Emb Econom</t>
+          <t>Desodorizador Aer Glade 360ml Aguas Fl Of Espec</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -930,7 +1020,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb898250-8f92-43a4-9e2a-400d3e264317.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/32811b17-9253-45d5-ac61-eb5d742addf7.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7894650938928</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Desodorizador Pato Caixa Acoplada 2un C/ 50%desc Na 2ª Un Marine</t>
+          <t>Difusor De Aromas Coala 100ml Especiarias</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 36,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/07545a41-6306-4850-94c5-70e3662aafd6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/67fe83f8-7741-4106-9290-f566fcaac614.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7897744502548</t>
         </is>
       </c>
     </row>
@@ -974,7 +1074,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Difusor De Aromas Coala 100ml Cereja Com Avela</t>
+          <t>Difusor De Aromas Coala 100ml Vanila</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -984,7 +1084,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f534dc78-6e90-4f6c-be02-a1bb6e4e71d1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d71511c0-85fb-46fd-b9ea-350cfa9caf67.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7897744502579</t>
         </is>
       </c>
     </row>
@@ -1014,6 +1119,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b8538262-74fb-4bc2-8b4f-f5f346dfd001.jpg</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7897744503989</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1028,7 +1138,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Difusor De Aromas Coala 100ml Vanila</t>
+          <t>Difusor De Aromas Coala 100ml Tutti Frut</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1038,7 +1148,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d71511c0-85fb-46fd-b9ea-350cfa9caf67.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3106285a-e87b-49ff-9053-6f21a0b09873.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7897744502593</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Gel Adesivo Pato Refil+aparelho Gratis 38g Marine</t>
+          <t>Difusor De Aromas Coala 100ml Lavanda</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e9799abb-dcf9-4c94-a795-35a7811f6ba4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1257a111-b50f-41da-9f7f-0c0331c97cbd.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7897744502586</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Evita Mofo Inspira 80g Lavanda</t>
+          <t>Difusor De Aromas Coala 100ml Orquidea</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/db900a00-21ea-4a5f-9aa4-0ae4d0714af3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/57303403-6b13-4a82-b2ec-a8aa952a67fa.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7897744504108</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Difusor De Aromas Secar 100ml Sensual</t>
+          <t>Difusor De Aromas Coala 100ml Capim Limao</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/99a58609-0ec5-4112-8528-6982507d2bd6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5917a347-cf27-4323-842b-26371a04c892.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7897744503002</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Difusor De Aromas Coala 100ml Tutti Frut</t>
+          <t>Bom Ar 360ml Flor De Algodão</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3106285a-e87b-49ff-9053-6f21a0b09873.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/875afb6e-c444-4559-839e-a2b94ec23bcd.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7891035534072</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Difusor De Aromas Coala 100ml Especiarias</t>
+          <t>Pastilha Adesiva Para Vaso Sanitário Inspira C/ 3 Fresh</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/67fe83f8-7741-4106-9290-f566fcaac614.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/34eef395-b4ea-488a-abdd-817a3b52fb7d.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7896021627943</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Gel Adesivo Pato 38g Refil+aparelho Gts Lavanda</t>
+          <t>Pastilha Adesiva Para Vaso Sanitário Inspira C/3 Marine</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3e753589-8375-44fb-ba6c-10de4d8dd097.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/057e4773-d2ca-4283-b0e3-8413c718913d.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7896021627080</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Pedra Glade Sany Brisa Marinha 25g</t>
+          <t>Bloco Sanitario Harpic Fresh Power 6 Marine 1un</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0fffe0da-99f0-4d51-ade3-30f21b30e47c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/70c7daed-bbaf-4010-af3c-b66b1600fc3b.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7891035560835</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Gel Adesivo Pato Refil Marine 38g</t>
+          <t>Limpador Perfumado Zulu Coala 500ml Cha Branco</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ca129d01-17e3-435e-b907-66a8e3343688.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ae692a40-0aad-458a-b43c-eef52c5c2340.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7896090700509</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Des Glade 360ml L Infância Oferta Espec</t>
+          <t>Bom Ar 360ml Cheirinh Talco Emb Economic</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dbc0684e-9cb0-45b1-a889-504f1e79ddfc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce26446d-376f-4356-9bbe-1111d5f55c8f.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7891035325625</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Evita Mofo Inspi 180g Lavanda</t>
+          <t>Pedra Sanitaria Harpic Plus Lavanda 25g</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4bbdcaac-a1cf-47ba-81f9-c7ce57b1f710.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7891035524189</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Pastilha Adesiva Para Vaso Sanitário Inspira C/ 3 Fresh</t>
+          <t>Bom Ar Air Wick Lavanda Refil 250ml</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 42,99</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/34eef395-b4ea-488a-abdd-817a3b52fb7d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a258a040-80d2-4109-901f-680cb2adb0a9.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7891035539947</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Inspira Gel Adesivo Citrus 42g</t>
+          <t>Bom Ar Air Wick Lavanda 360ml Emb Econom</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0ff5862c-4d6c-4039-ba55-2e182314e1ff.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ebca93d5-8221-4f0d-933a-ae97363d1f26.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7891035325595</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Desodorizador Aer Glade 360ml F Vibr Ofert Espec</t>
+          <t>Pedra Sant Harpic Hig Plus 25gr Citrus</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eb2e1fab-861b-4f08-b5f5-4f73e5165ab4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d324b58e-4bfe-4b3f-afa4-740926897863.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7891035524233</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Difusor De Aromas Coala 100ml Roma</t>
+          <t>Inspira Gel Adesivo Citrus 42g</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/23f7da91-4aac-4f34-b43d-a0b18522456c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0ff5862c-4d6c-4039-ba55-2e182314e1ff.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7896021625932</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Difusor De Aromas Secar 100ml Sem Nativa</t>
+          <t>Evita Mofo Inspira 80g Lavanda</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f03732b9-94fe-4c62-ae98-7635232084bf.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/db900a00-21ea-4a5f-9aa4-0ae4d0714af3.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7896021625116</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1650,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Evita Mofo Inspira 80g Floral</t>
+          <t>Evita Mofo Inspira 80g Infancia</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1470,7 +1660,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/16619230-a927-4286-b3bf-b5cc1f211218.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9da5e7dd-e7b7-4970-80ec-706b331f293d.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7896021625123</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Pastilha Adesiva Para Vaso Sanitário Inspira C/3 Marine</t>
+          <t>Evita Mofo Inspira 80g Floral</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/057e4773-d2ca-4283-b0e3-8413c718913d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/16619230-a927-4286-b3bf-b5cc1f211218.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7896021625123</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1714,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Bom Ar Click Spr Rf 12ml L3 P2 Lavanda</t>
+          <t>Evita Mofo Inspira 180g Natural</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R$ 27,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f8e12731-a333-49a6-808a-bbc4866d486e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e688fcb7-9cc4-4f07-8b7e-0ab68ef3eef3.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7896021625055</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Inspira Odd Cx Acoplada 45g Marine</t>
+          <t>Evita Mofo Inspi 180g Lavanda</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a1822234-d33c-4dbc-8094-9c873a8c4c62.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4bbdcaac-a1cf-47ba-81f9-c7ce57b1f710.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7896021625062</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Desodorizador Aer Glade 360ml Aguas Fl Of Espec</t>
+          <t>Evita Mofo Inspi 180g Floral</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/32811b17-9253-45d5-ac61-eb5d742addf7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8042695d-dc13-4b73-948f-9d4792b92bf9.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7896021625079</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1810,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Difusor De Aromas Secar 100ml Esmeralda</t>
+          <t>Inspira Odd Cx Acoplada 45g Lavanda</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1605,7 +1820,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/30f2705c-8fe5-4a2c-a51e-021130845d20.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e16114dd-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7896021625376</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1842,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Pastilha Adesiva Para Vaso Sanitário Inspira C/3 Lavanda</t>
+          <t>Inspira Odd Cx Acoplada 45g Marine</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9d90ec54-595b-4399-ae86-f71773712826.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a1822234-d33c-4dbc-8094-9c873a8c4c62.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7896021625390</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Evita Mofo Inspi 180g Floral</t>
+          <t>Bom Ar Click Spr Rf 12ml L3 P2 Lavanda</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 27,99</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8042695d-dc13-4b73-948f-9d4792b92bf9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f8e12731-a333-49a6-808a-bbc4866d486e.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7891035539527</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1906,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Desodorizador Glade Automatic Spray Refil Lavanda &amp; Baunilha 269ml</t>
+          <t>Des Glade 360ml L Infância Oferta Espec</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R$ 49,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/84126ccd-bfa9-4fc1-a304-d7491bd64dad.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dbc0684e-9cb0-45b1-a889-504f1e79ddfc.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7894650014448</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Pastilha Adesiva Sanitária Inspira C/3 Citrus</t>
+          <t>Evitamofo Closet 200g M. Da Familia</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3f472743-d891-4a06-9842-965c9976f373.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d28a27d0-d547-42d4-a509-7524f572eeaa.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7896021626687</t>
         </is>
       </c>
     </row>
@@ -1730,17 +1970,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Evita Mofo Inspira 180g Natural</t>
+          <t>Difusor De Aroma Secar 100ml Lavand Blue</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e688fcb7-9cc4-4f07-8b7e-0ab68ef3eef3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9f32b961-dbc6-403f-bcad-9f28c8e5213b.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7896013403043</t>
         </is>
       </c>
     </row>
@@ -1757,17 +2002,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Desodorizador Pato Caixa Acoplada 40g Marine</t>
+          <t>Difusor De Aromas Secar 100ml Sensual</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d974b17d-1322-4521-8703-d8b18132761e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/99a58609-0ec5-4112-8528-6982507d2bd6.jpg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7896013402657</t>
         </is>
       </c>
     </row>
@@ -1784,17 +2034,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Glade Toque Frescor Refil 12ml L3p2 Lav</t>
+          <t>Difusor De Aromas Secar 100ml Lavanda</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>R$ 36,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7b090b9c-22b7-4cd4-8d19-aed123f099d2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa4db9f0-4779-4f3c-bea5-95d6fde890f5.jpg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7896013402527</t>
         </is>
       </c>
     </row>
@@ -1811,17 +2066,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Difusor De Aromas Coala 100ml Tropical</t>
+          <t>Pedra Sanitaria Glad 25g C/25% Desc Pinho</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0c62aceb-0f4b-4d0b-9b43-d691199c493d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/57e7b4d5-c3f0-48a0-848e-2abdc69d74a5.jpg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7894650939598</t>
         </is>
       </c>
     </row>
@@ -1838,17 +2098,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Desodorizador Glade Gel 70g Tq Maciez</t>
+          <t>Desodorizador Aer Glade 360ml F Vibr Ofert Espec</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fbfbcebd-8023-4bda-ab5d-f090db0a5442.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eb2e1fab-861b-4f08-b5f5-4f73e5165ab4.jpg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7894650938430</t>
         </is>
       </c>
     </row>
@@ -1865,7 +2130,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Desodorizador Aer Glade 12ml Tq Fres Fl Lv3 Pag2</t>
+          <t>Glade Toque Frescor Refil 12ml L3p2 Lav</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1875,7 +2140,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7f1e3c63-ae2c-4dd4-b863-2cb5d6a1d943.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7b090b9c-22b7-4cd4-8d19-aed123f099d2.jpg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7894650005125</t>
         </is>
       </c>
     </row>
@@ -1892,17 +2162,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Desodorizador Aut Spray Glade Rf 269ml A Florais</t>
+          <t>Desodorizador Glade Gel 70g Tq Maciez</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>R$ 44,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/22419d68-d1ac-4aa7-bfcf-6cf74ae2f12f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fbfbcebd-8023-4bda-ab5d-f090db0a5442.jpg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7894650004609</t>
         </is>
       </c>
     </row>
@@ -1919,17 +2194,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Desumificador Secar 80g Original Kids</t>
+          <t>Pedra Sanitaria Glade 25% Desc 25gr Lav</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/32ef2f2c-4402-40f0-a378-6d1b3fd94092.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8e25b818-24cb-4b72-862a-df086f9dc1b7.jpg</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7894650004241</t>
         </is>
       </c>
     </row>
@@ -1946,17 +2226,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Inspira Odd Cx Acoplada 45g Lavanda</t>
+          <t>Desodorizador Aut Spray Glade Rf 269ml A Florais</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 44,99</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e16114dd-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/22419d68-d1ac-4aa7-bfcf-6cf74ae2f12f.jpg</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7894650938942</t>
         </is>
       </c>
     </row>
@@ -1973,341 +2258,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Bom Ar Air Wick Lavanda Refil 250ml</t>
+          <t>Desodorizador Glade Toque E Frescor Lavanda Refil 12ml</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>R$ 42,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a258a040-80d2-4109-901f-680cb2adb0a9.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Desodorizadores</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Desodorizador Glade Refil + Aparelho Lavanda&amp;vanilla 269ml</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>R$ 69,99</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/94b926b0-70c8-42b4-920d-516b21b94e7d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Desodorizadores</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Desodorizador Glade Toque E Frescor Lavanda Refil 12ml</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a8aa95c2-0d48-4091-ae6b-9f20da4e1821.jpg</t>
         </is>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Desodorizadores</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Evitamofo Secar 180g Floral</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/02928180-cfd2-4daa-a0a4-eb36b6b3467e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Desodorizadores</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Limpador Perfumado Zulu Coala 500ml Cha Branco</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ae692a40-0aad-458a-b43c-eef52c5c2340.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Desodorizadores</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Gel Adesivo Marine Pato 38g</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>R$ 28,99</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a57ce14-0678-4d03-9c63-8105d48beb8e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Desodorizadores</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Evitamofo Secar 180g Neutro</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/508d3a62-8792-4f39-b21a-ee3d912cc6e5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Desodorizadores</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Bloco Sanitario Harpic Fresh Power 6 Marine 1un</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>R$ 29,99</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/70c7daed-bbaf-4010-af3c-b66b1600fc3b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Desodorizadores</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Evitamofo Closet 200g M. Da Familia</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d28a27d0-d547-42d4-a509-7524f572eeaa.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Desodorizadores</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Desodorizador Aut Spray Glad 260ml Ap+ref L Infa</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>R$ 69,99</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3e0b497c-24a9-4e57-80ee-20d486396e03.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Desodorizadores</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Evita Mofo Inspira 80g Infancia</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9da5e7dd-e7b7-4970-80ec-706b331f293d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Desodorizadores</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Evitamofo Closet 200g Envolvente</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ef900eb3-01f3-4c95-8baf-6d223bacf51b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Desodorizadores</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Neutralizador De Odores P/ Roupas Comfort 320ml Refresh Frasco Borrifador</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>R$ 32,99</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1dca45ae-4f78-4be5-97f8-8ed88047c1de.jpg</t>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7894650005125</t>
         </is>
       </c>
     </row>
